--- a/src/ExpressionExcel/数据相关.xlsx
+++ b/src/ExpressionExcel/数据相关.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6AD4E1-D793-4683-89DC-85E975710B80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ACAC58-A244-4DA5-A7ED-D37B1FD51619}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,17 +13,22 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$61</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="61">
   <si>
     <t>SLL</t>
   </si>
@@ -234,6 +239,14 @@
   </si>
   <si>
     <t>HI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -345,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -372,6 +385,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -654,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -668,7 +684,7 @@
     <col min="4" max="4" width="12.77734375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>55</v>
       </c>
@@ -681,8 +697,11 @@
       <c r="D1" s="9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="E1" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,8 +714,11 @@
       <c r="D2" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -709,8 +731,11 @@
       <c r="D3" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -724,7 +749,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -738,7 +763,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -752,7 +777,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -766,7 +791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -780,7 +805,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -794,7 +819,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -808,7 +833,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -822,7 +847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -836,7 +861,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -850,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -864,7 +889,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -878,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -994,8 +1019,8 @@
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="7">
-        <v>0</v>
+      <c r="B24" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -1008,8 +1033,8 @@
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="7">
-        <v>0</v>
+      <c r="B25" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>50</v>
@@ -1050,8 +1075,8 @@
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="7">
-        <v>0</v>
+      <c r="B28" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>50</v>
@@ -1204,8 +1229,8 @@
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="7">
-        <v>0</v>
+      <c r="B39" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C39" s="7">
         <v>0</v>
@@ -1218,8 +1243,8 @@
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="7">
-        <v>0</v>
+      <c r="B40" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C40" s="7">
         <v>0</v>
@@ -1232,8 +1257,8 @@
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="7">
-        <v>0</v>
+      <c r="B41" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -1246,8 +1271,8 @@
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="7">
-        <v>0</v>
+      <c r="B42" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -1260,8 +1285,8 @@
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="7">
-        <v>0</v>
+      <c r="B43" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>50</v>
